--- a/biology/Médecine/Sida_au_Canada/Sida_au_Canada.xlsx
+++ b/biology/Médecine/Sida_au_Canada/Sida_au_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le VIH / sida a été détecté pour la première fois au Canada en 1982. En 2005, il y avait environ 58 000 personnes vivant avec le VIH / sida[1], avec une estimation de 15 000 pas au courant de leur séropositivité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le VIH / sida a été détecté pour la première fois au Canada en 1982. En 2005, il y avait environ 58 000 personnes vivant avec le VIH / sida, avec une estimation de 15 000 pas au courant de leur séropositivité.
 Le SIDA au Canada a progressé d'environ 12 % depuis 1999, passant à 56 000 personnes infectées par le virus en 2002.  En 2005, on estime que 60 000 personnes sont  séropositives et qu'au moins 30 % de ces personnes ne sont pas au courant de leur état.
 </t>
         </is>
